--- a/classification_data/results/learning_rate_loss_moment_0.xlsx
+++ b/classification_data/results/learning_rate_loss_moment_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
         <v>0.011</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5638971350450354</v>
+        <v>0.5729252077333963</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.021</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5278625193595944</v>
+        <v>0.5610596032230527</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.031</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5600232673458766</v>
+        <v>0.4995790881690885</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.04099999999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>0.532234278731005</v>
+        <v>0.5606509319780152</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.05099999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5267714628784753</v>
+        <v>0.594093039571178</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.06099999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4256777475083115</v>
+        <v>0.6393721835520771</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4312484297387812</v>
+        <v>0.63922603123778</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.08099999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5036862178519562</v>
+        <v>0.6390828224564407</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.09099999999999998</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5019877197878072</v>
+        <v>0.5843222803868334</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.101</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5016079747093148</v>
+        <v>0.6093261395977946</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.111</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4965930890138198</v>
+        <v>0.6386563256628326</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.121</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4949862945670154</v>
+        <v>0.4747396460699057</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.131</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4947279757946717</v>
+        <v>0.6385661718184923</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.141</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4944777890033534</v>
+        <v>0.49711714052959</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.151</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4930517559905696</v>
+        <v>0.5077025731567226</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.161</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4893991301820688</v>
+        <v>0.6380332094803243</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.171</v>
       </c>
       <c r="B19" t="n">
-        <v>0.486094798816633</v>
+        <v>0.4750877191558484</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.181</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4861077880168677</v>
+        <v>0.5060372156025736</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.191</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4956719843728097</v>
+        <v>0.4900098602468075</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.201</v>
       </c>
       <c r="B22" t="n">
-        <v>0.490273005907641</v>
+        <v>0.4867743499062034</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.211</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4889660862675773</v>
+        <v>0.5896155663770137</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.221</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4886134841550807</v>
+        <v>0.5109750933039284</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.231</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4883956177273911</v>
+        <v>0.5357981213904467</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.241</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4882119302460154</v>
+        <v>0.5040312913118893</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.2509999999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4880440644085128</v>
+        <v>0.5079300744129106</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.261</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5034674701931995</v>
+        <v>0.5027338988053588</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.271</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5041244391311676</v>
+        <v>0.4919802021921283</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.281</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5189332434121362</v>
+        <v>0.4885203972757217</v>
       </c>
     </row>
     <row r="31">
@@ -682,15 +682,47 @@
         <v>0.291</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5068838327114421</v>
+        <v>0.4017021623233136</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4023762383950508</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6082455099785153</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.3963842245012173</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
         <v>2</v>
       </c>
-      <c r="B32" t="n">
-        <v>0.4946284580625984</v>
+      <c r="B35" t="n">
+        <v>0.6082131016759951</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5326840043298634</v>
       </c>
     </row>
   </sheetData>
